--- a/result/follower.xlsx
+++ b/result/follower.xlsx
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY2" t="n">
         <v>0</v>
@@ -10510,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -14533,7 +14533,7 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32" t="n">
         <v>0</v>
@@ -65987,7 +65987,7 @@
         <v>1</v>
       </c>
       <c r="DQ147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR147" t="n">
         <v>0</v>
